--- a/Covid-19_SitRep_Data-V2-02-27-2021.xlsx
+++ b/Covid-19_SitRep_Data-V2-02-27-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwinterm/PycharmProjects/DadSitRepForMason/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF24A013-ED7D-ED43-9E31-3B0D1472F12A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5721EE1C-26DF-5E40-8111-5AF04CAC249E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -312,7 +312,33 @@
     <cellStyle name="percent_style" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="time_style" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -625,8 +651,8 @@
   <dimension ref="A1:BI302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BI2" sqref="BI2:BI302"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N136" sqref="N136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -31554,11 +31580,11 @@
         <v/>
       </c>
       <c r="AC194" s="4" t="str">
-        <f t="shared" ref="AC194:AC257" si="2344">(IF(AND(ISNUMBER(AB194),ISNUMBER(AB193)),AB194-AB193,""))</f>
+        <f t="shared" ref="AC194:AC250" si="2344">(IF(AND(ISNUMBER(AB194),ISNUMBER(AB193)),AB194-AB193,""))</f>
         <v/>
       </c>
       <c r="AE194" s="12" t="str">
-        <f t="shared" ref="AE194:AE257" si="2345">(IF(AND(ISNUMBER(AD194),ISNUMBER(AD193)),AD194-AD193,""))</f>
+        <f t="shared" ref="AE194:AE250" si="2345">(IF(AND(ISNUMBER(AD194),ISNUMBER(AD193)),AD194-AD193,""))</f>
         <v/>
       </c>
       <c r="AI194" s="4" t="str">
@@ -39363,6 +39389,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:BI1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
